--- a/paper_results/data-in-paper-figures.xlsx
+++ b/paper_results/data-in-paper-figures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuezi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4148B8AF-8345-3743-885B-16F4E64137F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A202F32-B94E-1B41-B518-7482BE5ADDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="500" windowWidth="24580" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35780" yWindow="-1380" windowWidth="35780" windowHeight="19640" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fig. 1 (a)" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="Fig. 4" sheetId="5" r:id="rId4"/>
     <sheet name="Fig. S2" sheetId="6" r:id="rId5"/>
     <sheet name="Fig. S4, S5" sheetId="2" r:id="rId6"/>
-    <sheet name="Fig. S6, S7" sheetId="7" r:id="rId7"/>
+    <sheet name="Fig. S6" sheetId="9" r:id="rId7"/>
+    <sheet name="Fig. S7, S8" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="59">
   <si>
     <t>No. in simulation</t>
   </si>
@@ -201,6 +202,18 @@
   </si>
   <si>
     <t>Average renewable supply [GW]</t>
+  </si>
+  <si>
+    <t>DSS</t>
+  </si>
+  <si>
+    <t>noDSS</t>
+  </si>
+  <si>
+    <t>Gas generation capacity factor [%]</t>
+  </si>
+  <si>
+    <t>grid laod factor [%]</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2925,7 +2938,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4978,7 +4993,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5424,7 +5439,7 @@
   <dimension ref="A1:M92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9222,10 +9237,1191 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7492C3D-30E7-9E4F-B6DD-F800119AD023}">
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2019</v>
+      </c>
+      <c r="G2">
+        <v>-2.1</v>
+      </c>
+      <c r="H2">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="I2" s="1">
+        <v>36.826146036973263</v>
+      </c>
+      <c r="J2" s="1">
+        <v>55.070158229071851</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2025</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>76.2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>21.483954191632186</v>
+      </c>
+      <c r="J3" s="1">
+        <v>56.271433628606424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2030</v>
+      </c>
+      <c r="G4">
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <v>91.7</v>
+      </c>
+      <c r="I4" s="1">
+        <v>14.027218845082116</v>
+      </c>
+      <c r="J4" s="1">
+        <v>60.000643312940682</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2035</v>
+      </c>
+      <c r="G5">
+        <v>55</v>
+      </c>
+      <c r="H5">
+        <v>114.3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5.5778830992116131</v>
+      </c>
+      <c r="J5" s="1">
+        <v>62.452016696387105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2040</v>
+      </c>
+      <c r="G6">
+        <v>70</v>
+      </c>
+      <c r="H6">
+        <v>258.10000000000002</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>60.24708732450074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2045</v>
+      </c>
+      <c r="G7">
+        <v>78</v>
+      </c>
+      <c r="H7">
+        <v>268.60000000000002</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>58.050803711865342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2050</v>
+      </c>
+      <c r="G8">
+        <v>85</v>
+      </c>
+      <c r="H8">
+        <v>277.5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>56.427640379297628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2019</v>
+      </c>
+      <c r="G9">
+        <v>-2.1</v>
+      </c>
+      <c r="H9">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="I9" s="1">
+        <v>36.826146036973263</v>
+      </c>
+      <c r="J9" s="1">
+        <v>55.070158229071851</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2025</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>69.7</v>
+      </c>
+      <c r="I10" s="1">
+        <v>34.179747202092315</v>
+      </c>
+      <c r="J10" s="1">
+        <v>52.400756602615886</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2030</v>
+      </c>
+      <c r="G11">
+        <v>40</v>
+      </c>
+      <c r="H11">
+        <v>81.8</v>
+      </c>
+      <c r="I11" s="1">
+        <v>21.059048131186277</v>
+      </c>
+      <c r="J11" s="1">
+        <v>48.674332337465763</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2035</v>
+      </c>
+      <c r="G12">
+        <v>55</v>
+      </c>
+      <c r="H12">
+        <v>90.5</v>
+      </c>
+      <c r="I12" s="1">
+        <v>19.55439797840582</v>
+      </c>
+      <c r="J12" s="1">
+        <v>39.625151816485925</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2040</v>
+      </c>
+      <c r="G13">
+        <v>70</v>
+      </c>
+      <c r="H13">
+        <v>98.2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>15.180272740428411</v>
+      </c>
+      <c r="J13" s="1">
+        <v>38.656784458520576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2045</v>
+      </c>
+      <c r="G14">
+        <v>78</v>
+      </c>
+      <c r="H14">
+        <v>104</v>
+      </c>
+      <c r="I14" s="1">
+        <v>13.311801065309295</v>
+      </c>
+      <c r="J14" s="1">
+        <v>38.656784458520576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2050</v>
+      </c>
+      <c r="G15">
+        <v>85</v>
+      </c>
+      <c r="H15">
+        <v>111.3</v>
+      </c>
+      <c r="I15" s="1">
+        <v>10.690529541166866</v>
+      </c>
+      <c r="J15" s="1">
+        <v>38.656784458520576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2019</v>
+      </c>
+      <c r="G16">
+        <v>-2.1</v>
+      </c>
+      <c r="H16">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="I16" s="1">
+        <v>36.826146036973263</v>
+      </c>
+      <c r="J16" s="1">
+        <v>55.070158229071851</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2025</v>
+      </c>
+      <c r="G17">
+        <v>20</v>
+      </c>
+      <c r="H17">
+        <v>64.2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>47.597258775293795</v>
+      </c>
+      <c r="J17" s="1">
+        <v>60.371802389207318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2030</v>
+      </c>
+      <c r="G18">
+        <v>40</v>
+      </c>
+      <c r="H18">
+        <v>70.8</v>
+      </c>
+      <c r="I18" s="1">
+        <v>39.616146970571165</v>
+      </c>
+      <c r="J18" s="1">
+        <v>53.857779072727944</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2035</v>
+      </c>
+      <c r="G19">
+        <v>55</v>
+      </c>
+      <c r="H19">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="I19" s="1">
+        <v>31.731733345282194</v>
+      </c>
+      <c r="J19" s="1">
+        <v>53.857779072727944</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2040</v>
+      </c>
+      <c r="G20">
+        <v>70</v>
+      </c>
+      <c r="H20">
+        <v>86.3</v>
+      </c>
+      <c r="I20" s="1">
+        <v>23.023226423185996</v>
+      </c>
+      <c r="J20" s="1">
+        <v>53.857779072727944</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2045</v>
+      </c>
+      <c r="G21">
+        <v>78</v>
+      </c>
+      <c r="H21">
+        <v>92.7</v>
+      </c>
+      <c r="I21" s="1">
+        <v>17.552552135778942</v>
+      </c>
+      <c r="J21" s="1">
+        <v>53.857779072727944</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2050</v>
+      </c>
+      <c r="G22">
+        <v>85</v>
+      </c>
+      <c r="H22">
+        <v>101.8</v>
+      </c>
+      <c r="I22" s="1">
+        <v>12.803908680460829</v>
+      </c>
+      <c r="J22" s="1">
+        <v>53.857779072727944</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>31</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2019</v>
+      </c>
+      <c r="G23">
+        <v>-2.1</v>
+      </c>
+      <c r="H23">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="I23" s="1">
+        <v>36.826146036973263</v>
+      </c>
+      <c r="J23" s="1">
+        <v>55.070158229071851</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>31</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2025</v>
+      </c>
+      <c r="G24">
+        <v>20</v>
+      </c>
+      <c r="H24">
+        <v>70.3</v>
+      </c>
+      <c r="I24" s="1">
+        <v>37.207261612814271</v>
+      </c>
+      <c r="J24" s="1">
+        <v>58.128795425343561</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>31</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2030</v>
+      </c>
+      <c r="G25">
+        <v>40</v>
+      </c>
+      <c r="H25">
+        <v>82.8</v>
+      </c>
+      <c r="I25" s="1">
+        <v>24.495357928198086</v>
+      </c>
+      <c r="J25" s="1">
+        <v>51.208632031907918</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>31</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2035</v>
+      </c>
+      <c r="G26">
+        <v>55</v>
+      </c>
+      <c r="H26">
+        <v>95.3</v>
+      </c>
+      <c r="I26" s="1">
+        <v>16.422532563760239</v>
+      </c>
+      <c r="J26" s="1">
+        <v>46.728368736071843</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>31</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2040</v>
+      </c>
+      <c r="G27">
+        <v>70</v>
+      </c>
+      <c r="H27">
+        <v>111.5</v>
+      </c>
+      <c r="I27" s="1">
+        <v>10.662679402799331</v>
+      </c>
+      <c r="J27" s="1">
+        <v>43.351990780043423</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>31</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2045</v>
+      </c>
+      <c r="G28">
+        <v>78</v>
+      </c>
+      <c r="H28">
+        <v>121.8</v>
+      </c>
+      <c r="I28" s="1">
+        <v>8.0181519520876456</v>
+      </c>
+      <c r="J28" s="1">
+        <v>41.816545188018985</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>31</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2050</v>
+      </c>
+      <c r="G29">
+        <v>85</v>
+      </c>
+      <c r="H29">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="I29" s="1">
+        <v>6.4541006618690115</v>
+      </c>
+      <c r="J29" s="1">
+        <v>40.509178714316782</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>32</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2019</v>
+      </c>
+      <c r="G30">
+        <v>-2.1</v>
+      </c>
+      <c r="H30">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="I30" s="1">
+        <v>36.826146036973263</v>
+      </c>
+      <c r="J30" s="1">
+        <v>55.070158229071851</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>32</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2025</v>
+      </c>
+      <c r="G31">
+        <v>20</v>
+      </c>
+      <c r="H31">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="I31" s="1">
+        <v>48.326186377650345</v>
+      </c>
+      <c r="J31" s="1">
+        <v>62.577842065265209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2030</v>
+      </c>
+      <c r="G32">
+        <v>40</v>
+      </c>
+      <c r="H32">
+        <v>75.7</v>
+      </c>
+      <c r="I32" s="1">
+        <v>37.582306361055792</v>
+      </c>
+      <c r="J32" s="1">
+        <v>59.83673465696053</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2035</v>
+      </c>
+      <c r="G33">
+        <v>55</v>
+      </c>
+      <c r="H33">
+        <v>84.5</v>
+      </c>
+      <c r="I33" s="1">
+        <v>25.615847865714752</v>
+      </c>
+      <c r="J33" s="1">
+        <v>58.460292470350261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2040</v>
+      </c>
+      <c r="G34">
+        <v>70</v>
+      </c>
+      <c r="H34">
+        <v>99.2</v>
+      </c>
+      <c r="I34" s="1">
+        <v>15.860798636795471</v>
+      </c>
+      <c r="J34" s="1">
+        <v>56.81206364881578</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2045</v>
+      </c>
+      <c r="G35">
+        <v>78</v>
+      </c>
+      <c r="H35">
+        <v>107.9</v>
+      </c>
+      <c r="I35" s="1">
+        <v>14.333996442253685</v>
+      </c>
+      <c r="J35" s="1">
+        <v>55.411221825875558</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>32</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2050</v>
+      </c>
+      <c r="G36">
+        <v>85</v>
+      </c>
+      <c r="H36">
+        <v>115.3</v>
+      </c>
+      <c r="I36" s="1">
+        <v>14.012213655173362</v>
+      </c>
+      <c r="J36" s="1">
+        <v>54.183301371832648</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
